--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1036360.805556462</v>
+        <v>1033347.727785174</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.056421089299432</v>
       </c>
       <c r="I6" t="n">
         <v>6.876045741711437</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>6.876045741711437</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.362763033681134</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="G8" t="n">
         <v>14.10799948566432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16.32182460276238</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="S8" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="G9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17.47076251934584</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>17.47076251934545</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
     </row>
     <row r="10">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.47076251934584</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.47076251934546</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>317.6630958720256</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3879145929936</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.99717886454772</v>
+        <v>20.99717886454789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.02354224794708</v>
+        <v>97.02354224794719</v>
       </c>
       <c r="T11" t="n">
         <v>201.5812122224572</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9524670740652</v>
+        <v>131.296865202544</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7138550685951</v>
       </c>
       <c r="H12" t="n">
-        <v>86.83844453323539</v>
+        <v>86.83844453323542</v>
       </c>
       <c r="I12" t="n">
-        <v>8.983575426612461</v>
+        <v>8.983575426612546</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.8383510569211</v>
+        <v>122.8383510569212</v>
       </c>
       <c r="T12" t="n">
         <v>189.5653450766123</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.786358994408</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.6260932706975</v>
       </c>
       <c r="I13" t="n">
-        <v>89.15152797925955</v>
+        <v>89.15152797925961</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.16564300812428</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.5960776925607</v>
+        <v>9.756477256350799</v>
       </c>
       <c r="T13" t="n">
         <v>218.525847872792</v>
@@ -1585,7 +1585,7 @@
         <v>286.1987773366336</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.70464299651221</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352832</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328445</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,16 +1819,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>226.5630621370023</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>62.93495098928306</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>314.9813656337178</v>
+        <v>314.9813656337175</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>136.5069655920694</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>4.472116698874219</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>304.3915154833934</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672557</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>201.6604234087035</v>
+        <v>62.22081276756168</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>21.11024843228049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.119387955707186</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>75.51524729971878</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>38.03682829123491</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>78.97134809779074</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>171.6681551613521</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965314</v>
       </c>
       <c r="C32" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040584</v>
       </c>
       <c r="D32" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537338</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053126</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747623</v>
       </c>
       <c r="G32" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458085</v>
       </c>
       <c r="H32" t="n">
-        <v>279.9708401375951</v>
+        <v>279.9708401375952</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.02033873387036</v>
+        <v>81.02033873387047</v>
       </c>
       <c r="T32" t="n">
-        <v>195.6048049705249</v>
+        <v>195.604804970525</v>
       </c>
       <c r="U32" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206972</v>
       </c>
       <c r="V32" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031858</v>
       </c>
       <c r="W32" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504639</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115199</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891044</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.239728314988</v>
+        <v>176.2397283149882</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316787</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>123.8558020290904</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.828796155982</v>
+        <v>132.0452568097345</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102178</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.8617379250048</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.21232487745988</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.58849972413441</v>
       </c>
       <c r="S34" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915098</v>
       </c>
       <c r="T34" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958127</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5931996814712</v>
+        <v>282.5931996814713</v>
       </c>
       <c r="V34" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568789</v>
       </c>
       <c r="W34" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696419</v>
       </c>
       <c r="X34" t="n">
-        <v>222.1174035220879</v>
+        <v>222.117403522088</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965314</v>
       </c>
       <c r="C35" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040584</v>
       </c>
       <c r="D35" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537338</v>
       </c>
       <c r="E35" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053126</v>
       </c>
       <c r="F35" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G35" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458084</v>
       </c>
       <c r="H35" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873387043</v>
       </c>
       <c r="T35" t="n">
-        <v>195.6048049705248</v>
+        <v>195.604804970525</v>
       </c>
       <c r="U35" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206971</v>
       </c>
       <c r="V35" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031857</v>
       </c>
       <c r="W35" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504638</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891044</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.32748758685833</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.023221151263</v>
+        <v>145.0232211512632</v>
       </c>
       <c r="E37" t="n">
-        <v>142.8417107796199</v>
+        <v>142.84171077962</v>
       </c>
       <c r="F37" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.9498010102176</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>78.21232487745984</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58849972413424</v>
+        <v>63.58849972413437</v>
       </c>
       <c r="S37" t="n">
-        <v>177.7462364915096</v>
+        <v>177.7462364915098</v>
       </c>
       <c r="T37" t="n">
-        <v>213.8897425958125</v>
+        <v>182.9719635361861</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5931996814711</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568788</v>
       </c>
       <c r="W37" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696418</v>
       </c>
       <c r="X37" t="n">
-        <v>222.1174035220878</v>
+        <v>222.117403522088</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851456</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387002</v>
+        <v>81.02033873387036</v>
       </c>
       <c r="T38" t="n">
         <v>195.6048049705249</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.239728314988</v>
+        <v>171.5049085170388</v>
       </c>
       <c r="C40" t="n">
-        <v>74.69948014726675</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>161.9498010102177</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.5884997241343</v>
       </c>
       <c r="S40" t="n">
         <v>177.7462364915097</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.1415897965314</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C41" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D41" t="n">
-        <v>351.0907897537338</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3381182053126</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F41" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G41" t="n">
-        <v>406.2510241458084</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H41" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.02033873387042</v>
+        <v>81.02033873387025</v>
       </c>
       <c r="T41" t="n">
-        <v>195.604804970525</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U41" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V41" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6545692316786</v>
+        <v>76.78615371866952</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512632</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E43" t="n">
-        <v>142.84171077962</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745965</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>63.58849972413418</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T43" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5931996814712</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V43" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9307464696418</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>222.117403522088</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.89858981597455</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C44" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D44" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E44" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F44" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G44" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H44" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387036</v>
+        <v>81.02033873387023</v>
       </c>
       <c r="T44" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U44" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V44" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W44" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.239728314988</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.0232211512631</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E46" t="n">
-        <v>142.8417107796199</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F46" t="n">
-        <v>141.828796155982</v>
+        <v>32.67072066451153</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745976</v>
+        <v>78.21232487745964</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T46" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5931996814712</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V46" t="n">
-        <v>100.0093255754229</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W46" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X46" t="n">
-        <v>222.1174035220879</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
   </sheetData>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69689768255142</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P5" t="n">
         <v>20.69689768255142</v>
@@ -4589,28 +4589,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H6" t="n">
         <v>7.495584408540386</v>
@@ -4647,22 +4647,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N6" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O6" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E7" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
         <v>7.495584408540386</v>
@@ -4726,49 +4726,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N7" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="C8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="D8" t="n">
-        <v>39.26950538298271</v>
+        <v>55.90823697602295</v>
       </c>
       <c r="E8" t="n">
-        <v>39.26950538298271</v>
+        <v>35.87277504593018</v>
       </c>
       <c r="F8" t="n">
-        <v>32.32400463377924</v>
+        <v>15.83731311583741</v>
       </c>
       <c r="G8" t="n">
-        <v>18.07350010280518</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="H8" t="n">
-        <v>18.07350010280518</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="I8" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="J8" t="n">
-        <v>20.43016053011606</v>
+        <v>21.22356482254727</v>
       </c>
       <c r="K8" t="n">
-        <v>20.43016053011606</v>
+        <v>21.22356482254727</v>
       </c>
       <c r="L8" t="n">
-        <v>40.06691676780044</v>
+        <v>40.86032106023119</v>
       </c>
       <c r="M8" t="n">
-        <v>40.06691676780044</v>
+        <v>59.70367300548344</v>
       </c>
       <c r="N8" t="n">
-        <v>59.70367300548481</v>
+        <v>59.70367300548344</v>
       </c>
       <c r="O8" t="n">
-        <v>79.34042924316918</v>
+        <v>59.70367300548344</v>
       </c>
       <c r="P8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="R8" t="n">
-        <v>59.30496731307595</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="S8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="T8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="U8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="V8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="W8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="X8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.26950538298271</v>
+        <v>59.3049673130746</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.69319437514308</v>
+        <v>41.65773244504889</v>
       </c>
       <c r="C9" t="n">
-        <v>41.65773244504985</v>
+        <v>41.65773244504889</v>
       </c>
       <c r="D9" t="n">
-        <v>41.65773244504985</v>
+        <v>41.65773244504889</v>
       </c>
       <c r="E9" t="n">
-        <v>41.65773244504985</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="F9" t="n">
-        <v>41.65773244504985</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="G9" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="H9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="I9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="J9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="K9" t="n">
-        <v>21.22356482254776</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="L9" t="n">
-        <v>21.46341004807123</v>
+        <v>1.826653810386423</v>
       </c>
       <c r="M9" t="n">
-        <v>41.10016628575561</v>
+        <v>21.46341004807034</v>
       </c>
       <c r="N9" t="n">
-        <v>60.73692252343998</v>
+        <v>41.10016628575427</v>
       </c>
       <c r="O9" t="n">
-        <v>70.13746628788027</v>
+        <v>60.7369225234382</v>
       </c>
       <c r="P9" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="R9" t="n">
-        <v>61.69319437514308</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="S9" t="n">
-        <v>61.69319437514308</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="T9" t="n">
-        <v>61.69319437514308</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="U9" t="n">
-        <v>61.69319437514308</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="V9" t="n">
-        <v>61.69319437514308</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="W9" t="n">
-        <v>61.69319437514308</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="X9" t="n">
-        <v>61.69319437514308</v>
+        <v>61.69319437514166</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.69319437514308</v>
+        <v>41.65773244504889</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.34042924316918</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="C10" t="n">
-        <v>79.34042924316918</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="D10" t="n">
-        <v>79.34042924316918</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="E10" t="n">
-        <v>79.34042924316918</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="F10" t="n">
-        <v>59.30496731307595</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="G10" t="n">
-        <v>59.30496731307595</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="H10" t="n">
-        <v>39.26950538298271</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="I10" t="n">
-        <v>19.23404345288948</v>
+        <v>21.62227051495612</v>
       </c>
       <c r="J10" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="K10" t="n">
-        <v>20.43016053011606</v>
+        <v>1.586808584863347</v>
       </c>
       <c r="L10" t="n">
-        <v>20.43016053011606</v>
+        <v>20.43016053011559</v>
       </c>
       <c r="M10" t="n">
-        <v>20.43016053011606</v>
+        <v>20.43016053011559</v>
       </c>
       <c r="N10" t="n">
-        <v>40.06691676780044</v>
+        <v>40.06691676779951</v>
       </c>
       <c r="O10" t="n">
-        <v>59.70367300548481</v>
+        <v>59.70367300548344</v>
       </c>
       <c r="P10" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924316736</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="R10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="S10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="T10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="U10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="V10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.3049673130746</v>
       </c>
       <c r="W10" t="n">
-        <v>79.34042924316918</v>
+        <v>39.26950538298183</v>
       </c>
       <c r="X10" t="n">
-        <v>79.34042924316918</v>
+        <v>39.26950538298183</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.34042924316918</v>
+        <v>21.62227051495612</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1587.34760762333</v>
+        <v>2039.274739281564</v>
       </c>
       <c r="C11" t="n">
-        <v>1218.385090682918</v>
+        <v>1670.312222341152</v>
       </c>
       <c r="D11" t="n">
-        <v>897.5132766707711</v>
+        <v>1312.046523734401</v>
       </c>
       <c r="E11" t="n">
-        <v>511.7250240725268</v>
+        <v>926.2582711361568</v>
       </c>
       <c r="F11" t="n">
-        <v>100.7391192829193</v>
+        <v>515.2723663465492</v>
       </c>
       <c r="G11" t="n">
         <v>100.7391192829193</v>
@@ -5036,55 +5036,55 @@
         <v>100.7391192829193</v>
       </c>
       <c r="I11" t="n">
-        <v>79.52984770256805</v>
+        <v>79.52984770256793</v>
       </c>
       <c r="J11" t="n">
-        <v>313.2624596893711</v>
+        <v>313.2624596893702</v>
       </c>
       <c r="K11" t="n">
-        <v>714.3055743743671</v>
+        <v>714.3055743743653</v>
       </c>
       <c r="L11" t="n">
-        <v>1248.736782657058</v>
+        <v>1248.736782657055</v>
       </c>
       <c r="M11" t="n">
-        <v>1875.063913185252</v>
+        <v>1875.063913185249</v>
       </c>
       <c r="N11" t="n">
-        <v>2516.139479869081</v>
+        <v>2516.139479869077</v>
       </c>
       <c r="O11" t="n">
-        <v>3108.153697478341</v>
+        <v>3108.153697478338</v>
       </c>
       <c r="P11" t="n">
-        <v>3578.923134615891</v>
+        <v>3578.923134615887</v>
       </c>
       <c r="Q11" t="n">
-        <v>3884.278629635255</v>
+        <v>3884.27862963525</v>
       </c>
       <c r="R11" t="n">
-        <v>3976.492385128402</v>
+        <v>3976.492385128397</v>
       </c>
       <c r="S11" t="n">
-        <v>3878.488807100173</v>
+        <v>3878.488807100167</v>
       </c>
       <c r="T11" t="n">
-        <v>3674.871421016883</v>
+        <v>3674.871421016877</v>
       </c>
       <c r="U11" t="n">
-        <v>3421.384080538029</v>
+        <v>3542.248324852691</v>
       </c>
       <c r="V11" t="n">
-        <v>3090.321193194457</v>
+        <v>3542.248324852691</v>
       </c>
       <c r="W11" t="n">
-        <v>2737.552537924343</v>
+        <v>3189.479669582577</v>
       </c>
       <c r="X11" t="n">
-        <v>2364.086779663263</v>
+        <v>2816.013911321497</v>
       </c>
       <c r="Y11" t="n">
-        <v>1973.947447687452</v>
+        <v>2425.874579345686</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.3197668539295</v>
       </c>
       <c r="H12" t="n">
-        <v>88.60416631530791</v>
+        <v>88.60416631530788</v>
       </c>
       <c r="I12" t="n">
-        <v>79.52984770256805</v>
+        <v>79.52984770256793</v>
       </c>
       <c r="J12" t="n">
-        <v>199.9215432162225</v>
+        <v>199.9215432162221</v>
       </c>
       <c r="K12" t="n">
-        <v>483.8449512811134</v>
+        <v>483.8449512811126</v>
       </c>
       <c r="L12" t="n">
-        <v>911.9375529043239</v>
+        <v>911.9375529043225</v>
       </c>
       <c r="M12" t="n">
-        <v>1430.858295347328</v>
+        <v>1430.858295347326</v>
       </c>
       <c r="N12" t="n">
-        <v>1504.498348356317</v>
+        <v>1977.921970661684</v>
       </c>
       <c r="O12" t="n">
-        <v>1982.734938506079</v>
+        <v>2000.149254341687</v>
       </c>
       <c r="P12" t="n">
-        <v>2347.228897940539</v>
+        <v>2364.643213776148</v>
       </c>
       <c r="Q12" t="n">
-        <v>2540.964260655357</v>
+        <v>2558.378576490964</v>
       </c>
       <c r="R12" t="n">
         <v>2558.378576490964</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.9625453403261</v>
+        <v>481.1096257271791</v>
       </c>
       <c r="C13" t="n">
-        <v>781.9625453403261</v>
+        <v>481.1096257271791</v>
       </c>
       <c r="D13" t="n">
-        <v>631.8459059279903</v>
+        <v>481.1096257271791</v>
       </c>
       <c r="E13" t="n">
-        <v>483.9328123455972</v>
+        <v>481.1096257271791</v>
       </c>
       <c r="F13" t="n">
-        <v>337.0428648476868</v>
+        <v>481.1096257271791</v>
       </c>
       <c r="G13" t="n">
-        <v>169.5818961664666</v>
+        <v>313.6486570459589</v>
       </c>
       <c r="H13" t="n">
-        <v>169.5818961664666</v>
+        <v>169.5818961664665</v>
       </c>
       <c r="I13" t="n">
-        <v>79.52984770256805</v>
+        <v>79.52984770256793</v>
       </c>
       <c r="J13" t="n">
-        <v>141.4122525280656</v>
+        <v>141.4122525280654</v>
       </c>
       <c r="K13" t="n">
-        <v>372.9408898935581</v>
+        <v>372.9408898935576</v>
       </c>
       <c r="L13" t="n">
-        <v>724.7442678044438</v>
+        <v>724.744267804443</v>
       </c>
       <c r="M13" t="n">
-        <v>1106.060726432608</v>
+        <v>1106.060726432607</v>
       </c>
       <c r="N13" t="n">
-        <v>1483.74494838064</v>
+        <v>1483.744948380639</v>
       </c>
       <c r="O13" t="n">
-        <v>1816.581161797888</v>
+        <v>1816.581161797887</v>
       </c>
       <c r="P13" t="n">
-        <v>2077.859359380112</v>
+        <v>2077.859359380111</v>
       </c>
       <c r="Q13" t="n">
-        <v>2175.319760120378</v>
+        <v>2175.319760120376</v>
       </c>
       <c r="R13" t="n">
-        <v>2096.364565162677</v>
+        <v>2175.319760120376</v>
       </c>
       <c r="S13" t="n">
-        <v>1908.893779614636</v>
+        <v>2165.464732588709</v>
       </c>
       <c r="T13" t="n">
-        <v>1688.160599945149</v>
+        <v>1944.731552919222</v>
       </c>
       <c r="U13" t="n">
-        <v>1399.070925867741</v>
+        <v>1655.641878841814</v>
       </c>
       <c r="V13" t="n">
-        <v>1399.070925867741</v>
+        <v>1400.957390635927</v>
       </c>
       <c r="W13" t="n">
-        <v>1109.65375583078</v>
+        <v>1111.540220598966</v>
       </c>
       <c r="X13" t="n">
-        <v>881.6642049327627</v>
+        <v>883.550669700949</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.9625453403261</v>
+        <v>662.7580905574189</v>
       </c>
     </row>
     <row r="14">
@@ -5267,52 +5267,52 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
         <v>3467.429399206857</v>
@@ -5349,22 +5349,22 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3593983639619</v>
+        <v>273.0036752628434</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0917312077133</v>
+        <v>763.7360081065948</v>
       </c>
       <c r="M15" t="n">
-        <v>915.0917312077133</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>846.8182155057103</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>696.7015760933746</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>548.7884825109815</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156339</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861976</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.667456821981</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1957.667456821981</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358681</v>
       </c>
       <c r="E17" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708295</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
         <v>4514.497374127289</v>
@@ -5540,10 +5540,10 @@
         <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
         <v>4100.461420469744</v>
@@ -5580,40 +5580,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>93.85065580060314</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.85065580060314</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>525.8973588994244</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1117.915713151552</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.011676550888</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
         <v>2552.77562977024</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>846.8182155057104</v>
+        <v>713.7377723076921</v>
       </c>
       <c r="C19" t="n">
-        <v>846.8182155057104</v>
+        <v>544.8015893797852</v>
       </c>
       <c r="D19" t="n">
-        <v>696.7015760933747</v>
+        <v>544.8015893797852</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109816</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130712</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
         <v>2020.132206020528</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.52680186348</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.450588178207</v>
+        <v>1888.270025422327</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.76609997232</v>
+        <v>1633.58553721644</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.248810377498</v>
+        <v>1344.168367179479</v>
       </c>
       <c r="X19" t="n">
-        <v>1249.25925947948</v>
+        <v>1116.178816281462</v>
       </c>
       <c r="Y19" t="n">
-        <v>1028.46668033595</v>
+        <v>895.3862371379319</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555047</v>
       </c>
       <c r="C20" t="n">
         <v>1897.462430614635</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007885</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409641</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200332</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364399</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J20" t="n">
         <v>372.3074987251935</v>
@@ -5759,22 +5759,22 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
         <v>4150.915188021282</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S20" t="n">
         <v>4555.113898070877</v>
@@ -5792,10 +5792,10 @@
         <v>3416.62987785606</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619169</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F21" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0073801158079</v>
+        <v>423.3203657894395</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.739712959559</v>
+        <v>914.052698633191</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.739712959559</v>
+        <v>1506.071052885319</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.835676358895</v>
+        <v>2128.167016284655</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.754398433618</v>
+        <v>718.7478115233705</v>
       </c>
       <c r="C22" t="n">
-        <v>846.8182155057108</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="D22" t="n">
-        <v>696.701576093375</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="E22" t="n">
-        <v>548.7884825109819</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F22" t="n">
-        <v>401.8985350130714</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
         <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J22" t="n">
         <v>171.7937461156345</v>
@@ -5923,7 +5923,7 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P22" t="n">
         <v>2310.662640856733</v>
@@ -5935,25 +5935,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.678377027639</v>
+        <v>2182.356278323278</v>
       </c>
       <c r="U22" t="n">
-        <v>1935.602163342365</v>
+        <v>1893.280064638005</v>
       </c>
       <c r="V22" t="n">
-        <v>1935.602163342365</v>
+        <v>1638.595576432118</v>
       </c>
       <c r="W22" t="n">
-        <v>1646.184993305405</v>
+        <v>1349.178406395158</v>
       </c>
       <c r="X22" t="n">
-        <v>1418.195442407387</v>
+        <v>1121.18885549714</v>
       </c>
       <c r="Y22" t="n">
-        <v>1197.402863263857</v>
+        <v>900.3962763536102</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -6002,13 +6002,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6063,28 +6063,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>439.1978607924984</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>929.9301936362498</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>929.9301936362498</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.026157035586</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O24" t="n">
-        <v>2098.90263203578</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P24" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
         <v>2518.486150461856</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.1252502501684</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>577.1890673222615</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8655840573317</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9524904749385</v>
+        <v>95.98914406646277</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>95.98914406646277</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>95.98914406646277</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6145,13 +6145,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6160,37 +6160,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335694</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2209.733717050076</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1920.657503364803</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V25" t="n">
-        <v>1665.973015158916</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1376.555845121956</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1148.566294223938</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>927.7737150804081</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
@@ -6233,19 +6233,19 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,31 +6300,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L27" t="n">
-        <v>242.5353624779756</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M27" t="n">
-        <v>834.5537167301034</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N27" t="n">
-        <v>1456.64968012944</v>
+        <v>1798.694998646823</v>
       </c>
       <c r="O27" t="n">
-        <v>2003.526155129634</v>
+        <v>2345.571473647017</v>
       </c>
       <c r="P27" t="n">
-        <v>2423.10967355571</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>746.1252502501682</v>
+        <v>714.7744972332184</v>
       </c>
       <c r="C28" t="n">
-        <v>577.1890673222613</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="D28" t="n">
-        <v>427.0724279099254</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E28" t="n">
-        <v>279.1593343275324</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F28" t="n">
-        <v>132.2693868296221</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6385,10 +6385,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948591</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6403,31 +6403,31 @@
         <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2429.412499335694</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2209.733717050076</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U28" t="n">
-        <v>1920.657503364803</v>
+        <v>1889.306750347853</v>
       </c>
       <c r="V28" t="n">
-        <v>1665.973015158916</v>
+        <v>1634.622262141966</v>
       </c>
       <c r="W28" t="n">
-        <v>1376.555845121955</v>
+        <v>1345.205092105006</v>
       </c>
       <c r="X28" t="n">
-        <v>1148.566294223938</v>
+        <v>1117.215541206988</v>
       </c>
       <c r="Y28" t="n">
-        <v>927.7737150804079</v>
+        <v>896.4229620634582</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6464,22 +6464,22 @@
         <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
         <v>4566.333620403613</v>
@@ -6488,7 +6488,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6537,25 +6537,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413344</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885086</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M30" t="n">
-        <v>1063.776437885086</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269496</v>
+        <v>1798.694998646823</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>2345.571473647017</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>957.5492919979872</v>
+        <v>952.5320614616467</v>
       </c>
       <c r="C31" t="n">
-        <v>788.6131090700803</v>
+        <v>783.5958785337398</v>
       </c>
       <c r="D31" t="n">
-        <v>638.4964696577447</v>
+        <v>633.479239121404</v>
       </c>
       <c r="E31" t="n">
-        <v>490.5833760753517</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F31" t="n">
-        <v>343.6934285774414</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G31" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H31" t="n">
         <v>176.4792337520202</v>
@@ -6625,7 +6625,7 @@
         <v>432.4591980117247</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6634,37 +6634,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T31" t="n">
-        <v>2166.473270592008</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="U31" t="n">
-        <v>1877.397056906735</v>
+        <v>2072.476940608923</v>
       </c>
       <c r="V31" t="n">
-        <v>1877.397056906735</v>
+        <v>1817.792452403036</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.979886869774</v>
+        <v>1528.375282366075</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.990335971757</v>
+        <v>1354.973105435417</v>
       </c>
       <c r="Y31" t="n">
-        <v>1139.197756828227</v>
+        <v>1134.180526291886</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C32" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E32" t="n">
         <v>1193.32238904241</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921453</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6104516478937</v>
+        <v>375.610451647894</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J32" t="n">
         <v>372.3074987251936</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L32" t="n">
         <v>1461.45766301865</v>
@@ -6716,34 +6716,34 @@
         <v>3602.609239333933</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021285</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127292</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.58116130403</v>
       </c>
       <c r="S32" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310221</v>
       </c>
       <c r="T32" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.161824228882</v>
       </c>
       <c r="U32" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187774</v>
       </c>
       <c r="V32" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083546</v>
       </c>
       <c r="W32" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X32" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031038</v>
       </c>
       <c r="Y32" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="33">
@@ -6762,43 +6762,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E33" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F33" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G33" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J33" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K33" t="n">
         <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>570.9683475412853</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O33" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>836.5613096687392</v>
+        <v>772.3305018665811</v>
       </c>
       <c r="C34" t="n">
-        <v>671.2536639801751</v>
+        <v>607.0228561780168</v>
       </c>
       <c r="D34" t="n">
-        <v>524.7655618071822</v>
+        <v>607.0228561780168</v>
       </c>
       <c r="E34" t="n">
-        <v>399.6586910707267</v>
+        <v>607.0228561780168</v>
       </c>
       <c r="F34" t="n">
-        <v>256.397280812159</v>
+        <v>473.6438088954567</v>
       </c>
       <c r="G34" t="n">
-        <v>92.81162322608056</v>
+        <v>310.0581513093782</v>
       </c>
       <c r="H34" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871512</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J34" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639141</v>
       </c>
       <c r="K34" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827574</v>
       </c>
       <c r="L34" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141712</v>
       </c>
       <c r="M34" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N34" t="n">
         <v>1670.891395746897</v>
       </c>
       <c r="O34" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110206</v>
       </c>
       <c r="P34" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.55694629469</v>
       </c>
       <c r="Q34" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196405</v>
       </c>
       <c r="R34" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.595601394249</v>
       </c>
       <c r="S34" t="n">
-        <v>2277.284756174679</v>
+        <v>2213.053948372522</v>
       </c>
       <c r="T34" t="n">
-        <v>2061.234511128404</v>
+        <v>1997.003703326246</v>
       </c>
       <c r="U34" t="n">
-        <v>1775.786834682473</v>
+        <v>1711.556026880315</v>
       </c>
       <c r="V34" t="n">
-        <v>1524.730883715929</v>
+        <v>1460.500075913771</v>
       </c>
       <c r="W34" t="n">
-        <v>1238.942250918311</v>
+        <v>1174.711443116153</v>
       </c>
       <c r="X34" t="n">
-        <v>1014.581237259636</v>
+        <v>950.3504294574783</v>
       </c>
       <c r="Y34" t="n">
-        <v>1014.581237259636</v>
+        <v>950.3504294574783</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D35" t="n">
         <v>1575.482104401312</v>
@@ -6926,34 +6926,34 @@
         <v>785.9650214921453</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478945</v>
+        <v>375.6104516478939</v>
       </c>
       <c r="H35" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J35" t="n">
         <v>372.3074987251948</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q35" t="n">
         <v>4514.49737412729</v>
@@ -6968,10 +6968,10 @@
         <v>4361.161824228881</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187774</v>
       </c>
       <c r="V35" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083546</v>
       </c>
       <c r="W35" t="n">
         <v>3434.772564052774</v>
@@ -6980,7 +6980,7 @@
         <v>3064.935343031037</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I36" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K36" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L36" t="n">
-        <v>732.2309703962005</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M36" t="n">
-        <v>1324.249324648328</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N36" t="n">
-        <v>1946.345288047664</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O36" t="n">
-        <v>1946.345288047664</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.92880647374</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>690.43134958677</v>
+        <v>764.4164674115003</v>
       </c>
       <c r="C37" t="n">
-        <v>690.43134958677</v>
+        <v>764.4164674115003</v>
       </c>
       <c r="D37" t="n">
-        <v>543.943247413777</v>
+        <v>617.9283652385071</v>
       </c>
       <c r="E37" t="n">
-        <v>399.6586910707266</v>
+        <v>473.6438088954566</v>
       </c>
       <c r="F37" t="n">
-        <v>256.397280812159</v>
+        <v>473.6438088954566</v>
       </c>
       <c r="G37" t="n">
-        <v>92.81162322608056</v>
+        <v>310.058151309378</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871511</v>
       </c>
       <c r="I37" t="n">
         <v>92.81162322608056</v>
@@ -7096,49 +7096,49 @@
         <v>175.3500754639142</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141715</v>
       </c>
       <c r="M37" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O37" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110206</v>
       </c>
       <c r="P37" t="n">
         <v>2335.556946294691</v>
       </c>
       <c r="Q37" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196405</v>
       </c>
       <c r="R37" t="n">
-        <v>2392.59560139425</v>
+        <v>2392.595601394249</v>
       </c>
       <c r="S37" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372522</v>
       </c>
       <c r="T37" t="n">
-        <v>1997.003703326248</v>
+        <v>2028.233783184455</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.556026880318</v>
+        <v>1742.786106738525</v>
       </c>
       <c r="V37" t="n">
-        <v>1460.500075913774</v>
+        <v>1491.73015577198</v>
       </c>
       <c r="W37" t="n">
-        <v>1174.711443116156</v>
+        <v>1205.941522974362</v>
       </c>
       <c r="X37" t="n">
-        <v>950.3504294574811</v>
+        <v>981.5805093156878</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.1863875532936</v>
+        <v>764.4164674115003</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1575.482104401311</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G38" t="n">
         <v>375.6104516478937</v>
@@ -7175,7 +7175,7 @@
         <v>372.3074987251939</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L38" t="n">
         <v>1461.457663018651</v>
@@ -7187,13 +7187,13 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R38" t="n">
         <v>4640.581161304028</v>
@@ -7248,31 +7248,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I39" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0073801158079</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.758067211687</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.854030611023</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O39" t="n">
-        <v>2276.854030611023</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>619.3972677645518</v>
+        <v>559.9491062229501</v>
       </c>
       <c r="C40" t="n">
-        <v>543.9432474137772</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="D40" t="n">
-        <v>543.9432474137772</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="E40" t="n">
-        <v>399.6586910707267</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="F40" t="n">
-        <v>256.397280812159</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="G40" t="n">
-        <v>92.81162322608056</v>
+        <v>231.0558029483075</v>
       </c>
       <c r="H40" t="n">
         <v>92.81162322608056</v>
@@ -7333,13 +7333,13 @@
         <v>175.3500754639142</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827577</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141717</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N40" t="n">
         <v>1670.891395746897</v>
@@ -7354,28 +7354,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R40" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S40" t="n">
-        <v>2277.284756174678</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T40" t="n">
-        <v>2061.234511128403</v>
+        <v>1997.003703326247</v>
       </c>
       <c r="U40" t="n">
-        <v>1775.786834682473</v>
+        <v>1711.556026880317</v>
       </c>
       <c r="V40" t="n">
-        <v>1524.730883715929</v>
+        <v>1460.500075913772</v>
       </c>
       <c r="W40" t="n">
-        <v>1238.942250918311</v>
+        <v>1174.711443116154</v>
       </c>
       <c r="X40" t="n">
-        <v>1014.581237259636</v>
+        <v>950.3504294574799</v>
       </c>
       <c r="Y40" t="n">
-        <v>797.4171953554488</v>
+        <v>733.1863875532924</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469789</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.11926576872</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E41" t="n">
-        <v>1193.322389042411</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921458</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G41" t="n">
-        <v>375.6104516478939</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J41" t="n">
         <v>372.3074987251936</v>
@@ -7421,40 +7421,40 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333936</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021284</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127291</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304029</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.742435310221</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.161824228882</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187774</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V41" t="n">
-        <v>3783.912682083546</v>
+        <v>3783.912682083543</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052775</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X41" t="n">
-        <v>3064.935343031038</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294568</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="42">
@@ -7473,43 +7473,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E42" t="n">
-        <v>459.9992225560485</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G42" t="n">
-        <v>177.684414342863</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85065580060316</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0073801158079</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="L42" t="n">
-        <v>572.0073801158079</v>
+        <v>141.6400447072585</v>
       </c>
       <c r="M42" t="n">
-        <v>1164.025734367936</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124812</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>993.9831749975617</v>
+        <v>840.9550927600161</v>
       </c>
       <c r="C43" t="n">
-        <v>828.6755293089974</v>
+        <v>763.3933213270166</v>
       </c>
       <c r="D43" t="n">
-        <v>682.1874271360043</v>
+        <v>616.9052191540236</v>
       </c>
       <c r="E43" t="n">
-        <v>537.9028707929538</v>
+        <v>616.9052191540236</v>
       </c>
       <c r="F43" t="n">
-        <v>394.6414605343861</v>
+        <v>473.6438088954561</v>
       </c>
       <c r="G43" t="n">
-        <v>231.0558029483076</v>
+        <v>310.0581513093777</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608057</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K43" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827579</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141715</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M43" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N43" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O43" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P43" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2456.826409196405</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R43" t="n">
-        <v>2456.826409196405</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S43" t="n">
-        <v>2456.826409196405</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T43" t="n">
-        <v>2240.77616415013</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U43" t="n">
-        <v>1955.3284877042</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.272536737655</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.483903940037</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="X43" t="n">
-        <v>1194.122890281363</v>
+        <v>1236.1390622551</v>
       </c>
       <c r="Y43" t="n">
-        <v>1172.003102588459</v>
+        <v>1018.975020350913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C44" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D44" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G44" t="n">
-        <v>375.610451647894</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251948</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U44" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V44" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W44" t="n">
-        <v>3434.772564052774</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X44" t="n">
-        <v>3064.935343031037</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.424548294568</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0073801158079</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.739712959559</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M45" t="n">
-        <v>1117.915713151552</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.011676550888</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O45" t="n">
-        <v>2286.888151551083</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>769.4336979478406</v>
+        <v>797.4171953554509</v>
       </c>
       <c r="C46" t="n">
-        <v>769.4336979478406</v>
+        <v>797.4171953554509</v>
       </c>
       <c r="D46" t="n">
-        <v>622.9455957748476</v>
+        <v>650.9290931824573</v>
       </c>
       <c r="E46" t="n">
-        <v>478.661039431797</v>
+        <v>506.6445368394071</v>
       </c>
       <c r="F46" t="n">
-        <v>335.3996291732295</v>
+        <v>473.643808895456</v>
       </c>
       <c r="G46" t="n">
-        <v>171.813971587151</v>
+        <v>310.0581513093777</v>
       </c>
       <c r="H46" t="n">
-        <v>171.813971587151</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J46" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K46" t="n">
         <v>438.535131782758</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141719</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M46" t="n">
         <v>1252.639200606911</v>
@@ -7819,37 +7819,37 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O46" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P46" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q46" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R46" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S46" t="n">
-        <v>2277.284756174679</v>
+        <v>2277.28475617468</v>
       </c>
       <c r="T46" t="n">
-        <v>2061.234511128403</v>
+        <v>2061.234511128405</v>
       </c>
       <c r="U46" t="n">
-        <v>1775.786834682473</v>
+        <v>1775.786834682475</v>
       </c>
       <c r="V46" t="n">
-        <v>1674.767313899217</v>
+        <v>1524.730883715931</v>
       </c>
       <c r="W46" t="n">
-        <v>1388.9786811016</v>
+        <v>1238.942250918313</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.617667442925</v>
+        <v>1014.581237259638</v>
       </c>
       <c r="Y46" t="n">
-        <v>947.4536255387377</v>
+        <v>797.4171953554509</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>130.2566731616621</v>
+        <v>130.2566731616624</v>
       </c>
       <c r="K2" t="n">
-        <v>143.9699589788388</v>
+        <v>143.9699589788393</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3329578806509</v>
+        <v>141.3329578806516</v>
       </c>
       <c r="M2" t="n">
-        <v>125.2708168361765</v>
+        <v>125.2708168361772</v>
       </c>
       <c r="N2" t="n">
-        <v>122.637417115321</v>
+        <v>122.6374171153217</v>
       </c>
       <c r="O2" t="n">
-        <v>129.2729962502854</v>
+        <v>129.2729962502861</v>
       </c>
       <c r="P2" t="n">
-        <v>145.1810072802736</v>
+        <v>145.1810072802742</v>
       </c>
       <c r="Q2" t="n">
-        <v>157.6842302527201</v>
+        <v>157.6842302527205</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>96.58790840672575</v>
+        <v>96.58790840672596</v>
       </c>
       <c r="K3" t="n">
-        <v>86.13985236388383</v>
+        <v>86.13985236388419</v>
       </c>
       <c r="L3" t="n">
-        <v>69.03521621001316</v>
+        <v>69.03521621001364</v>
       </c>
       <c r="M3" t="n">
-        <v>61.00844904309963</v>
+        <v>61.00844904310019</v>
       </c>
       <c r="N3" t="n">
-        <v>48.06897436938142</v>
+        <v>48.06897436938199</v>
       </c>
       <c r="O3" t="n">
-        <v>66.41795808601094</v>
+        <v>66.41795808601147</v>
       </c>
       <c r="P3" t="n">
-        <v>72.83461661532795</v>
+        <v>72.83461661532837</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.11144307830037</v>
+        <v>99.11144307830065</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>97.82706551742723</v>
+        <v>97.82706551742743</v>
       </c>
       <c r="L4" t="n">
-        <v>94.97708671559423</v>
+        <v>94.97708671559451</v>
       </c>
       <c r="M4" t="n">
-        <v>96.84882620757813</v>
+        <v>96.84882620757843</v>
       </c>
       <c r="N4" t="n">
-        <v>86.6090827336393</v>
+        <v>86.60908273363957</v>
       </c>
       <c r="O4" t="n">
-        <v>100.5157776247281</v>
+        <v>100.5157776247283</v>
       </c>
       <c r="P4" t="n">
-        <v>105.2631286925787</v>
+        <v>105.2631286925789</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>103.6209668535709</v>
+        <v>96.74492111185943</v>
       </c>
       <c r="K5" t="n">
-        <v>100.6205754234462</v>
+        <v>93.74452968173479</v>
       </c>
       <c r="L5" t="n">
         <v>79.02387160133335</v>
@@ -8228,10 +8228,10 @@
         <v>58.78293280039047</v>
       </c>
       <c r="O5" t="n">
-        <v>62.74649997574608</v>
+        <v>69.62254571745751</v>
       </c>
       <c r="P5" t="n">
-        <v>88.4021818548425</v>
+        <v>95.27822759655393</v>
       </c>
       <c r="Q5" t="n">
         <v>121.9217427121372</v>
@@ -8295,25 +8295,25 @@
         <v>76.62853846434811</v>
       </c>
       <c r="K6" t="n">
-        <v>58.90215579240102</v>
+        <v>52.02611005068958</v>
       </c>
       <c r="L6" t="n">
-        <v>30.04112551435379</v>
+        <v>23.16507977264236</v>
       </c>
       <c r="M6" t="n">
-        <v>7.480163375249674</v>
+        <v>14.07838908699296</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.15399906534526</v>
+        <v>23.0300448070567</v>
       </c>
       <c r="P6" t="n">
-        <v>32.49335815233935</v>
+        <v>39.36940389405079</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.74260584946717</v>
+        <v>72.14438013772387</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>83.84801672668524</v>
+        <v>84.1258367566534</v>
       </c>
       <c r="L7" t="n">
-        <v>68.64525986006655</v>
+        <v>75.52130560177798</v>
       </c>
       <c r="M7" t="n">
-        <v>75.96165252469231</v>
+        <v>75.68383249472416</v>
       </c>
       <c r="N7" t="n">
-        <v>66.38205635482377</v>
+        <v>59.50601061311234</v>
       </c>
       <c r="O7" t="n">
-        <v>82.35774950379157</v>
+        <v>75.48170376208013</v>
       </c>
       <c r="P7" t="n">
-        <v>83.84215373318403</v>
+        <v>90.71819947489547</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>98.67769653148306</v>
+        <v>99.47911500868665</v>
       </c>
       <c r="K8" t="n">
-        <v>68.11469342869259</v>
+        <v>68.11469342869302</v>
       </c>
       <c r="L8" t="n">
-        <v>67.06290069507656</v>
+        <v>67.06290069507665</v>
       </c>
       <c r="M8" t="n">
-        <v>20.56068920996961</v>
+        <v>39.59437804355834</v>
       </c>
       <c r="N8" t="n">
-        <v>36.06807746384635</v>
+        <v>16.23297015305468</v>
       </c>
       <c r="O8" t="n">
-        <v>48.63340156949178</v>
+        <v>28.79829425870008</v>
       </c>
       <c r="P8" t="n">
-        <v>59.42817369484106</v>
+        <v>79.26328100563342</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.2874234944417</v>
+        <v>93.28742349444207</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>66.44335158797577</v>
+        <v>66.44335158797594</v>
       </c>
       <c r="K9" t="n">
-        <v>54.45311071706422</v>
+        <v>34.61800340627222</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>10.33960855883237</v>
       </c>
       <c r="P9" t="n">
-        <v>21.20329703133936</v>
+        <v>30.69879578329957</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.38319547359774</v>
+        <v>58.38319547359798</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>85.78297873956328</v>
+        <v>66.74928990597489</v>
       </c>
       <c r="L10" t="n">
-        <v>55.2082336365884</v>
+        <v>74.24192247017675</v>
       </c>
       <c r="M10" t="n">
-        <v>54.91814664042042</v>
+        <v>54.91814664042066</v>
       </c>
       <c r="N10" t="n">
-        <v>65.51052831770384</v>
+        <v>65.51052831770362</v>
       </c>
       <c r="O10" t="n">
-        <v>82.54202302575013</v>
+        <v>82.54202302574988</v>
       </c>
       <c r="P10" t="n">
-        <v>92.74622295683233</v>
+        <v>92.74622295683206</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.70432833249584</v>
+        <v>14.70432833249585</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.01994574865734</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3879145929936</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.1408718643861</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.6556018715212</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6260932706975</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.16564300812436</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>175.8396004362099</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.8800103555826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.2915261372904</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>59.95993619958873</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>162.7747043997541</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>50.29152613728974</v>
+        <v>50.29152613729008</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9.926997054499747</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0508816377168</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>50.29152613728951</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.2915261372886</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>15.82157105405827</v>
+        <v>155.2611816952001</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>127.5052245859319</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>138.3346018362467</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -24412,7 +24412,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>91.73157379890905</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>127.505224585932</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5106463649711</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>54.04150022768505</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.0232211512632</v>
       </c>
       <c r="E34" t="n">
-        <v>18.98590875052949</v>
+        <v>142.84171077962</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.78353934624762</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8617379250047</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745976</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58849972413429</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851456</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.9122407281297</v>
+        <v>176.2397283149881</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6545692316785</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>30.91777905962653</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4.734819797949251</v>
       </c>
       <c r="C40" t="n">
-        <v>88.95508908441182</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.0232211512631</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250047</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>78.21232487745976</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413429</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>86.86841551300894</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745982</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413435</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>177.7462364915098</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.093811669171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.1580754914703</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8617379250047</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.5884997241343</v>
+        <v>63.58849972413417</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>148.5360658814558</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>988558.1563052126</v>
+        <v>988558.1563052128</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880073.3163173703</v>
+        <v>880073.3163173696</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>951687.9471848593</v>
+        <v>951687.947184859</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958806.8224888096</v>
+        <v>958806.8224888095</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471111.2839505864</v>
+        <v>471111.2839505865</v>
       </c>
       <c r="C2" t="n">
         <v>471758.7891127605</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>426495.4110333095</v>
+        <v>426495.4110333092</v>
       </c>
       <c r="F2" t="n">
+        <v>461540.8686918679</v>
+      </c>
+      <c r="G2" t="n">
         <v>461540.8686918678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>461540.8686918677</v>
       </c>
       <c r="H2" t="n">
         <v>461540.8686918679</v>
@@ -26338,7 +26338,7 @@
         <v>463842.7118431716</v>
       </c>
       <c r="K2" t="n">
-        <v>463842.7118431713</v>
+        <v>463842.7118431717</v>
       </c>
       <c r="L2" t="n">
         <v>465024.5736278433</v>
@@ -26347,13 +26347,13 @@
         <v>465024.5736278433</v>
       </c>
       <c r="N2" t="n">
-        <v>465024.5736278436</v>
+        <v>465024.5736278433</v>
       </c>
       <c r="O2" t="n">
         <v>465024.5736278433</v>
       </c>
       <c r="P2" t="n">
-        <v>465024.5736278433</v>
+        <v>465024.5736278434</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143437.9233429899</v>
+        <v>143437.9233429889</v>
       </c>
       <c r="C3" t="n">
-        <v>91658.07998119252</v>
+        <v>91658.07998119346</v>
       </c>
       <c r="D3" t="n">
-        <v>46948.73977101272</v>
+        <v>46948.73977101185</v>
       </c>
       <c r="E3" t="n">
-        <v>1034346.890723875</v>
+        <v>1034346.890723874</v>
       </c>
       <c r="F3" t="n">
-        <v>154658.2522560889</v>
+        <v>154658.2522560901</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.086611511551</v>
+        <v>3446.08661151149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>1769.674140452818</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.801493559404</v>
+        <v>2873.801493559313</v>
       </c>
       <c r="M3" t="n">
-        <v>242796.4640036059</v>
+        <v>242796.4640036056</v>
       </c>
       <c r="N3" t="n">
-        <v>40663.31792059181</v>
+        <v>40663.31792059215</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.521272659185342e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385587.0237565589</v>
+        <v>385587.0237565591</v>
       </c>
       <c r="C4" t="n">
-        <v>362927.8785931708</v>
+        <v>362927.8785931707</v>
       </c>
       <c r="D4" t="n">
-        <v>350462.6726518968</v>
+        <v>350462.6726518971</v>
       </c>
       <c r="E4" t="n">
-        <v>9244.670604077992</v>
+        <v>9244.67060407799</v>
       </c>
       <c r="F4" t="n">
         <v>9330.667735531239</v>
       </c>
       <c r="G4" t="n">
-        <v>9330.667735531273</v>
+        <v>9330.667735531239</v>
       </c>
       <c r="H4" t="n">
         <v>9330.667735531239</v>
       </c>
       <c r="I4" t="n">
-        <v>10766.36483420047</v>
+        <v>10766.36483420045</v>
       </c>
       <c r="J4" t="n">
+        <v>10766.36483420045</v>
+      </c>
+      <c r="K4" t="n">
         <v>10766.36483420049</v>
       </c>
-      <c r="K4" t="n">
-        <v>10766.36483420045</v>
-      </c>
       <c r="L4" t="n">
-        <v>12797.5955065431</v>
+        <v>12797.59550654306</v>
       </c>
       <c r="M4" t="n">
-        <v>12797.59550654312</v>
+        <v>12797.59550654299</v>
       </c>
       <c r="N4" t="n">
-        <v>12797.59550654307</v>
+        <v>12797.59550654305</v>
       </c>
       <c r="O4" t="n">
-        <v>12797.5955065431</v>
+        <v>12797.59550654318</v>
       </c>
       <c r="P4" t="n">
-        <v>12797.59550654305</v>
+        <v>12797.59550654318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36872.62339515675</v>
+        <v>36872.62339515673</v>
       </c>
       <c r="C5" t="n">
         <v>39431.8184029668</v>
       </c>
       <c r="D5" t="n">
-        <v>41312.3401738086</v>
+        <v>41312.34017380855</v>
       </c>
       <c r="E5" t="n">
-        <v>87094.54025499424</v>
+        <v>87094.54025499414</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26485,7 +26485,7 @@
         <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138385</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94786.28654411918</v>
+        <v>-94790.58103855899</v>
       </c>
       <c r="C6" t="n">
-        <v>-22258.98786456967</v>
+        <v>-22260.46711917577</v>
       </c>
       <c r="D6" t="n">
-        <v>33375.26507524485</v>
+        <v>33375.26507524583</v>
       </c>
       <c r="E6" t="n">
-        <v>-704190.6905496372</v>
+        <v>-704388.9671002399</v>
       </c>
       <c r="F6" t="n">
-        <v>197409.8201864093</v>
+        <v>197363.9151908426</v>
       </c>
       <c r="G6" t="n">
-        <v>352068.0724424981</v>
+        <v>352022.1674469324</v>
       </c>
       <c r="H6" t="n">
-        <v>352068.0724424982</v>
+        <v>352022.1674469324</v>
       </c>
       <c r="I6" t="n">
-        <v>348700.2209402211</v>
+        <v>348664.3239583569</v>
       </c>
       <c r="J6" t="n">
-        <v>352146.3075517326</v>
+        <v>352110.4105698682</v>
       </c>
       <c r="K6" t="n">
-        <v>350376.6334112795</v>
+        <v>350340.7364294156</v>
       </c>
       <c r="L6" t="n">
-        <v>348909.0510916999</v>
+        <v>348878.2926393342</v>
       </c>
       <c r="M6" t="n">
-        <v>108986.3885816534</v>
+        <v>108955.6301292881</v>
       </c>
       <c r="N6" t="n">
-        <v>311119.5346646678</v>
+        <v>311088.7762123014</v>
       </c>
       <c r="O6" t="n">
-        <v>351782.8525852592</v>
+        <v>351752.0941328933</v>
       </c>
       <c r="P6" t="n">
-        <v>351782.8525852593</v>
+        <v>351752.0941328935</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="M2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="N2" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="O2" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P2" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.8542841815022</v>
+        <v>148.8542841815012</v>
       </c>
       <c r="C3" t="n">
         <v>247.0713221041627</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1910848308452</v>
+        <v>297.1910848308444</v>
       </c>
       <c r="E3" t="n">
-        <v>1222.562201882685</v>
+        <v>1222.562201882684</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,13 +26793,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="E4" t="n">
-        <v>994.1230962821005</v>
+        <v>994.1230962820991</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1160.145290326007</v>
@@ -26826,10 +26826,10 @@
         <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="P4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.190159082398168e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.8542841815022</v>
+        <v>148.8542841815012</v>
       </c>
       <c r="C3" t="n">
-        <v>98.21703792266044</v>
+        <v>98.21703792266146</v>
       </c>
       <c r="D3" t="n">
-        <v>50.11976272668258</v>
+        <v>50.11976272668173</v>
       </c>
       <c r="E3" t="n">
-        <v>925.3711170518397</v>
+        <v>925.3711170518395</v>
       </c>
       <c r="F3" t="n">
-        <v>135.4788468337008</v>
+        <v>135.4788468337019</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,22 +27015,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95906156908086</v>
+        <v>12.9590615690804</v>
       </c>
       <c r="E4" t="n">
-        <v>974.2879889713082</v>
+        <v>974.2879889713073</v>
       </c>
       <c r="F4" t="n">
-        <v>166.0221940439062</v>
+        <v>166.0221940439073</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.95906156908086</v>
+        <v>12.95906156908063</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>974.2879889713082</v>
+        <v>974.2879889713068</v>
       </c>
       <c r="N4" t="n">
-        <v>166.0221940439062</v>
+        <v>166.0221940439073</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>12.95906156908086</v>
+        <v>12.9590615690804</v>
       </c>
       <c r="M4" t="n">
-        <v>974.2879889713082</v>
+        <v>974.2879889713073</v>
       </c>
       <c r="N4" t="n">
-        <v>166.0221940439062</v>
+        <v>166.0221940439073</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>333.3463440740634</v>
       </c>
       <c r="I2" t="n">
-        <v>187.405719556708</v>
+        <v>187.4057195567081</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>112.2792971221897</v>
+        <v>112.27929712219</v>
       </c>
       <c r="S2" t="n">
         <v>195.3838203368545</v>
       </c>
       <c r="T2" t="n">
-        <v>220.4763133671282</v>
+        <v>220.4763133671283</v>
       </c>
       <c r="U2" t="n">
         <v>251.2977801732254</v>
@@ -27476,7 +27476,7 @@
         <v>109.1432071254807</v>
       </c>
       <c r="I3" t="n">
-        <v>78.37299010778496</v>
+        <v>78.37299010778503</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.27876578591345</v>
+        <v>80.27876578591359</v>
       </c>
       <c r="S3" t="n">
         <v>165.7360211650769</v>
@@ -27555,10 +27555,10 @@
         <v>159.8406234922017</v>
       </c>
       <c r="I4" t="n">
-        <v>147.3781803031204</v>
+        <v>147.3781803031205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.3814790006147</v>
+        <v>74.38147900061483</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.68504634028756</v>
+        <v>63.68504634028771</v>
       </c>
       <c r="R4" t="n">
         <v>165.2239931876333</v>
       </c>
       <c r="S4" t="n">
-        <v>219.338669139006</v>
+        <v>219.3386691390061</v>
       </c>
       <c r="T4" t="n">
         <v>226.7986793698338</v>
@@ -27634,7 +27634,7 @@
         <v>329.3026647187852</v>
       </c>
       <c r="I5" t="n">
-        <v>166.1271382482593</v>
+        <v>172.1835593375587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80.6007347637574</v>
+        <v>81.42035941616942</v>
       </c>
       <c r="S5" t="n">
         <v>186.3863499784117</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7478909208712</v>
+        <v>211.8718451791597</v>
       </c>
       <c r="U5" t="n">
         <v>251.2661927841447</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>129.9360349928223</v>
+        <v>130.7556596452343</v>
       </c>
       <c r="H6" t="n">
-        <v>101.0464660597124</v>
+        <v>100.2268414073004</v>
       </c>
       <c r="I6" t="n">
         <v>64.22332410481989</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G7" t="n">
         <v>167.5454409087627</v>
@@ -27792,7 +27792,7 @@
         <v>158.2659306546876</v>
       </c>
       <c r="I7" t="n">
-        <v>135.1758728983244</v>
+        <v>142.0519186400358</v>
       </c>
       <c r="J7" t="n">
         <v>54.98356598145195</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.79785252466639</v>
+        <v>41.97822787225439</v>
       </c>
       <c r="R7" t="n">
         <v>157.2603625390188</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>351.3202785870018</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>362.0952627614699</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>387.0409384309196</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>327.23919127145</v>
       </c>
       <c r="I8" t="n">
-        <v>148.093927086473</v>
+        <v>164.4157516892355</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.98504788661634</v>
+        <v>54.98504788661701</v>
       </c>
       <c r="S8" t="n">
-        <v>161.9598694288887</v>
+        <v>181.794976739681</v>
       </c>
       <c r="T8" t="n">
         <v>217.8658838401232</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>152.8733916775234</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>137.8099731446091</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>125.234105082592</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8691686510841</v>
+        <v>136.7042759618764</v>
       </c>
       <c r="H9" t="n">
-        <v>86.22661269176528</v>
+        <v>106.0617200025576</v>
       </c>
       <c r="I9" t="n">
-        <v>67.38767043705531</v>
+        <v>67.38767043705538</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>42.99804336098176</v>
+        <v>60.46880588032771</v>
       </c>
       <c r="S9" t="n">
         <v>159.8095461580017</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>188.302222684132</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>185.8475884665125</v>
       </c>
     </row>
     <row r="10">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>125.5859407121389</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.4550610087638</v>
       </c>
       <c r="H10" t="n">
-        <v>137.6272638693593</v>
+        <v>157.4623711801516</v>
       </c>
       <c r="I10" t="n">
-        <v>119.4988412456392</v>
+        <v>139.3339485564315</v>
       </c>
       <c r="J10" t="n">
-        <v>37.99899027389279</v>
+        <v>35.6346454824469</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.28618944223675</v>
+        <v>21.45108213144505</v>
       </c>
       <c r="R10" t="n">
-        <v>153.1965535808849</v>
+        <v>153.196553580885</v>
       </c>
       <c r="S10" t="n">
         <v>214.6770027972882</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.6878910257992</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1138908327493</v>
       </c>
     </row>
     <row r="11">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="C32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="D32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="F32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="G32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="H32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="T32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="U32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="V32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="W32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="X32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="D34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="E34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="F34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="G34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="H34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="I34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="J34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="K34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="L34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="M34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="N34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="O34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="P34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="R34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="T34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="U34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="V34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="W34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="X34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949141</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="H35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949185</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949596</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="C44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="D44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="E44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="F44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="G44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="H44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="T44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="U44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="V44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="W44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="X44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="C46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="D46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="E46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="F46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="G46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="H46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="I46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="J46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="K46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="L46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="M46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="N46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="O46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="P46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="R46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="T46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="U46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="V46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="W46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="X46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5984091826392044</v>
+        <v>0.5984091826392003</v>
       </c>
       <c r="H2" t="n">
-        <v>6.128458041703754</v>
+        <v>6.128458041703712</v>
       </c>
       <c r="I2" t="n">
-        <v>23.07017001369795</v>
+        <v>23.07017001369779</v>
       </c>
       <c r="J2" t="n">
-        <v>50.78923136502422</v>
+        <v>50.78923136502387</v>
       </c>
       <c r="K2" t="n">
-        <v>76.11989206614176</v>
+        <v>76.11989206614123</v>
       </c>
       <c r="L2" t="n">
-        <v>94.43345708933633</v>
+        <v>94.43345708933568</v>
       </c>
       <c r="M2" t="n">
-        <v>105.0754163910963</v>
+        <v>105.0754163910956</v>
       </c>
       <c r="N2" t="n">
-        <v>106.7756464812699</v>
+        <v>106.7756464812692</v>
       </c>
       <c r="O2" t="n">
-        <v>100.8252151714013</v>
+        <v>100.8252151714006</v>
       </c>
       <c r="P2" t="n">
-        <v>86.05198847499595</v>
+        <v>86.05198847499537</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.62145962172943</v>
+        <v>64.62145962172899</v>
       </c>
       <c r="R2" t="n">
-        <v>37.58982081895996</v>
+        <v>37.5898208189597</v>
       </c>
       <c r="S2" t="n">
-        <v>13.63624924939088</v>
+        <v>13.63624924939079</v>
       </c>
       <c r="T2" t="n">
-        <v>2.619536197003119</v>
+        <v>2.619536197003101</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04787273461113634</v>
+        <v>0.04787273461113602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3201771395602123</v>
+        <v>0.3201771395602101</v>
       </c>
       <c r="H3" t="n">
-        <v>3.092237111015735</v>
+        <v>3.092237111015714</v>
       </c>
       <c r="I3" t="n">
-        <v>11.02364274363012</v>
+        <v>11.02364274363004</v>
       </c>
       <c r="J3" t="n">
-        <v>30.24971825994094</v>
+        <v>30.24971825994073</v>
       </c>
       <c r="K3" t="n">
-        <v>51.70158661047516</v>
+        <v>51.70158661047481</v>
       </c>
       <c r="L3" t="n">
-        <v>69.51916356986102</v>
+        <v>69.51916356986054</v>
       </c>
       <c r="M3" t="n">
-        <v>81.12558487891869</v>
+        <v>81.12558487891813</v>
       </c>
       <c r="N3" t="n">
-        <v>83.27273771395188</v>
+        <v>83.27273771395132</v>
       </c>
       <c r="O3" t="n">
-        <v>76.1782863584335</v>
+        <v>76.17828635843297</v>
       </c>
       <c r="P3" t="n">
-        <v>61.1397907990023</v>
+        <v>61.13979079900188</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.87033100772114</v>
+        <v>40.87033100772086</v>
       </c>
       <c r="R3" t="n">
-        <v>19.87906836672968</v>
+        <v>19.87906836672954</v>
       </c>
       <c r="S3" t="n">
-        <v>5.947149938760957</v>
+        <v>5.947149938760917</v>
       </c>
       <c r="T3" t="n">
-        <v>1.290538558139627</v>
+        <v>1.290538558139618</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0210642854973824</v>
+        <v>0.02106428549738225</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2684257583600859</v>
+        <v>0.2684257583600841</v>
       </c>
       <c r="H4" t="n">
-        <v>2.386549015237856</v>
+        <v>2.38654901523784</v>
       </c>
       <c r="I4" t="n">
-        <v>8.072294624137859</v>
+        <v>8.072294624137804</v>
       </c>
       <c r="J4" t="n">
-        <v>18.97770111605807</v>
+        <v>18.97770111605794</v>
       </c>
       <c r="K4" t="n">
-        <v>31.18619265310816</v>
+        <v>31.18619265310794</v>
       </c>
       <c r="L4" t="n">
-        <v>39.90758956564405</v>
+        <v>39.90758956564378</v>
       </c>
       <c r="M4" t="n">
-        <v>42.07695774002692</v>
+        <v>42.07695774002663</v>
       </c>
       <c r="N4" t="n">
-        <v>41.0764617315939</v>
+        <v>41.07646173159362</v>
       </c>
       <c r="O4" t="n">
-        <v>37.9407608271147</v>
+        <v>37.94076082711445</v>
       </c>
       <c r="P4" t="n">
-        <v>32.46487535656892</v>
+        <v>32.4648753565687</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.47699691140683</v>
+        <v>22.47699691140668</v>
       </c>
       <c r="R4" t="n">
-        <v>12.06939818953622</v>
+        <v>12.06939818953614</v>
       </c>
       <c r="S4" t="n">
-        <v>4.677928897966223</v>
+        <v>4.677928897966191</v>
       </c>
       <c r="T4" t="n">
-        <v>1.146910058447639</v>
+        <v>1.146910058447632</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01464140500145925</v>
+        <v>0.01464140500145915</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.194738029470734</v>
+        <v>1.19473802947073</v>
       </c>
       <c r="H8" t="n">
-        <v>12.23561084431715</v>
+        <v>12.23561084431712</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0601378811705</v>
+        <v>46.06013788117037</v>
       </c>
       <c r="J8" t="n">
-        <v>101.4018968287918</v>
+        <v>101.4018968287915</v>
       </c>
       <c r="K8" t="n">
-        <v>151.975157616288</v>
+        <v>151.9751576162875</v>
       </c>
       <c r="L8" t="n">
-        <v>188.538621585703</v>
+        <v>188.5386215857024</v>
       </c>
       <c r="M8" t="n">
-        <v>209.7855440173031</v>
+        <v>209.7855440173025</v>
       </c>
       <c r="N8" t="n">
-        <v>213.1800934435369</v>
+        <v>213.1800934435362</v>
       </c>
       <c r="O8" t="n">
-        <v>201.2999171629872</v>
+        <v>201.2999171629866</v>
       </c>
       <c r="P8" t="n">
-        <v>171.8048220604285</v>
+        <v>171.804822060428</v>
       </c>
       <c r="Q8" t="n">
-        <v>129.0182663800078</v>
+        <v>129.0182663800074</v>
       </c>
       <c r="R8" t="n">
-        <v>75.04896274374104</v>
+        <v>75.04896274374083</v>
       </c>
       <c r="S8" t="n">
-        <v>27.22509284656437</v>
+        <v>27.22509284656429</v>
       </c>
       <c r="T8" t="n">
-        <v>5.22996572400814</v>
+        <v>5.229965724008125</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09557904235765867</v>
+        <v>0.09557904235765841</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6392412013342709</v>
+        <v>0.6392412013342691</v>
       </c>
       <c r="H9" t="n">
-        <v>6.173724233938881</v>
+        <v>6.173724233938863</v>
       </c>
       <c r="I9" t="n">
-        <v>22.00896241435977</v>
+        <v>22.0089624143597</v>
       </c>
       <c r="J9" t="n">
-        <v>60.39427507869092</v>
+        <v>60.39427507869075</v>
       </c>
       <c r="K9" t="n">
-        <v>103.2234355680871</v>
+        <v>103.2234355680868</v>
       </c>
       <c r="L9" t="n">
-        <v>138.7966476844433</v>
+        <v>138.7966476844429</v>
       </c>
       <c r="M9" t="n">
-        <v>161.9691412328106</v>
+        <v>161.9691412328102</v>
       </c>
       <c r="N9" t="n">
-        <v>151.1768193941256</v>
+        <v>151.1768193941251</v>
       </c>
       <c r="O9" t="n">
-        <v>152.0917431964043</v>
+        <v>152.0917431964039</v>
       </c>
       <c r="P9" t="n">
-        <v>122.0670325600504</v>
+        <v>122.06703256005</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.59857861242378</v>
+        <v>81.59857861242354</v>
       </c>
       <c r="R9" t="n">
-        <v>39.68902827231553</v>
+        <v>39.68902827231542</v>
       </c>
       <c r="S9" t="n">
-        <v>11.87362494583612</v>
+        <v>11.87362494583609</v>
       </c>
       <c r="T9" t="n">
-        <v>2.576590631693836</v>
+        <v>2.576590631693829</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04205534219304415</v>
+        <v>0.04205534219304403</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5359183496949668</v>
+        <v>0.5359183496949652</v>
       </c>
       <c r="H10" t="n">
-        <v>4.76480132728798</v>
+        <v>4.764801327287967</v>
       </c>
       <c r="I10" t="n">
-        <v>16.11652637082682</v>
+        <v>16.11652637082678</v>
       </c>
       <c r="J10" t="n">
-        <v>37.88942732343415</v>
+        <v>37.88942732343403</v>
       </c>
       <c r="K10" t="n">
-        <v>62.26396826456067</v>
+        <v>62.26396826456049</v>
       </c>
       <c r="L10" t="n">
-        <v>79.67644264464988</v>
+        <v>79.67644264464965</v>
       </c>
       <c r="M10" t="n">
-        <v>84.00763730718464</v>
+        <v>84.0076373071844</v>
       </c>
       <c r="N10" t="n">
-        <v>82.01012345832164</v>
+        <v>82.01012345832142</v>
       </c>
       <c r="O10" t="n">
-        <v>75.74962273688496</v>
+        <v>75.74962273688475</v>
       </c>
       <c r="P10" t="n">
-        <v>64.81688840310758</v>
+        <v>64.8168884031074</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.87585380945763</v>
+        <v>44.8758538094575</v>
       </c>
       <c r="R10" t="n">
-        <v>24.09683779628459</v>
+        <v>24.09683779628452</v>
       </c>
       <c r="S10" t="n">
-        <v>9.339595239684099</v>
+        <v>9.339595239684073</v>
       </c>
       <c r="T10" t="n">
-        <v>2.289832948696676</v>
+        <v>2.289832948696669</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02923190998336186</v>
+        <v>0.02923190998336177</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.914822922141443</v>
+        <v>4.914822922141439</v>
       </c>
       <c r="H11" t="n">
-        <v>50.33393025138107</v>
+        <v>50.33393025138103</v>
       </c>
       <c r="I11" t="n">
-        <v>189.4787107058582</v>
+        <v>189.478710705858</v>
       </c>
       <c r="J11" t="n">
-        <v>417.1394519881027</v>
+        <v>417.1394519881023</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1839062823501</v>
+        <v>625.1839062823495</v>
       </c>
       <c r="L11" t="n">
-        <v>775.5959182858365</v>
+        <v>775.5959182858359</v>
       </c>
       <c r="M11" t="n">
-        <v>862.9999004274694</v>
+        <v>862.9999004274686</v>
       </c>
       <c r="N11" t="n">
-        <v>876.9641410550039</v>
+        <v>876.964141055003</v>
       </c>
       <c r="O11" t="n">
-        <v>828.0923706229598</v>
+        <v>828.092370622959</v>
       </c>
       <c r="P11" t="n">
-        <v>706.7576797325928</v>
+        <v>706.7576797325921</v>
       </c>
       <c r="Q11" t="n">
-        <v>530.7455838334022</v>
+        <v>530.7455838334017</v>
       </c>
       <c r="R11" t="n">
-        <v>308.7307453829677</v>
+        <v>308.7307453829674</v>
       </c>
       <c r="S11" t="n">
-        <v>111.9965273382983</v>
+        <v>111.9965273382982</v>
       </c>
       <c r="T11" t="n">
-        <v>21.51463734167418</v>
+        <v>21.51463734167416</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3931858337713154</v>
+        <v>0.3931858337713151</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.629662094615587</v>
+        <v>2.629662094615584</v>
       </c>
       <c r="H12" t="n">
-        <v>25.39699970326107</v>
+        <v>25.39699970326104</v>
       </c>
       <c r="I12" t="n">
-        <v>90.53880457338754</v>
+        <v>90.53880457338745</v>
       </c>
       <c r="J12" t="n">
-        <v>248.4453999127823</v>
+        <v>248.4453999127821</v>
       </c>
       <c r="K12" t="n">
-        <v>424.6327602520266</v>
+        <v>424.6327602520262</v>
       </c>
       <c r="L12" t="n">
-        <v>570.9711490962484</v>
+        <v>570.9711490962478</v>
       </c>
       <c r="M12" t="n">
-        <v>666.2964000260632</v>
+        <v>666.2964000260627</v>
       </c>
       <c r="N12" t="n">
-        <v>205.7256040116049</v>
+        <v>683.9312831079366</v>
       </c>
       <c r="O12" t="n">
-        <v>625.6635072219813</v>
+        <v>165.0480461414178</v>
       </c>
       <c r="P12" t="n">
-        <v>502.1501240147957</v>
+        <v>502.1501240147953</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.674059656544</v>
+        <v>335.6740596565438</v>
       </c>
       <c r="R12" t="n">
-        <v>163.2697219797292</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.84482004691668</v>
+        <v>48.84482004691663</v>
       </c>
       <c r="T12" t="n">
-        <v>10.59938361820931</v>
+        <v>10.5993836182093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1730040851720781</v>
+        <v>0.173004085172078</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.204620364050743</v>
+        <v>2.204620364050741</v>
       </c>
       <c r="H13" t="n">
-        <v>19.60107923674208</v>
+        <v>19.60107923674206</v>
       </c>
       <c r="I13" t="n">
-        <v>66.29894694799873</v>
+        <v>66.29894694799867</v>
       </c>
       <c r="J13" t="n">
-        <v>155.8666597383875</v>
+        <v>155.8666597383874</v>
       </c>
       <c r="K13" t="n">
-        <v>256.1368022960772</v>
+        <v>256.136802296077</v>
       </c>
       <c r="L13" t="n">
-        <v>327.7669221244169</v>
+        <v>327.7669221244166</v>
       </c>
       <c r="M13" t="n">
-        <v>345.5842630666087</v>
+        <v>345.5842630666084</v>
       </c>
       <c r="N13" t="n">
-        <v>337.3670417096926</v>
+        <v>337.3670417096923</v>
       </c>
       <c r="O13" t="n">
-        <v>311.6130674569179</v>
+        <v>311.6130674569176</v>
       </c>
       <c r="P13" t="n">
-        <v>266.6388120302825</v>
+        <v>266.6388120302823</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.6068924842854</v>
+        <v>184.6068924842853</v>
       </c>
       <c r="R13" t="n">
-        <v>99.12774836904521</v>
+        <v>99.12774836904512</v>
       </c>
       <c r="S13" t="n">
-        <v>38.42052034441158</v>
+        <v>38.42052034441154</v>
       </c>
       <c r="T13" t="n">
-        <v>9.419741555489537</v>
+        <v>9.419741555489528</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1202520198573134</v>
+        <v>0.1202520198573133</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>319.853612748867</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>576.4554809227366</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32309,16 +32309,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>574.9651909908048</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
@@ -32327,16 +32327,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862161</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R20" t="n">
         <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T20" t="n">
         <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,40 +32540,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H21" t="n">
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O21" t="n">
-        <v>326.9083219859709</v>
+        <v>571.4938338238233</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32582,7 +32582,7 @@
         <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,34 +32622,34 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R22" t="n">
         <v>110.1126397860859</v>
@@ -32783,31 +32783,31 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>336.4904271708467</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>347.0847408589315</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
         <v>181.3625385436714</v>
@@ -33020,16 +33020,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
@@ -33041,13 +33041,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059965</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.3216497487956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33257,28 +33257,28 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>660.2062811584955</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059965</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33503,25 +33503,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>270.7843846131202</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33731,10 +33731,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33749,16 +33749,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q36" t="n">
-        <v>293.0329044522736</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33968,7 +33968,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
@@ -33983,19 +33983,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>144.10988311136</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34205,22 +34205,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>187.8760176396499</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3239583024007</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
@@ -34232,7 +34232,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34442,19 +34442,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8673674492839</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
@@ -34463,13 +34463,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>6.876045741711437</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>19.03368883358856</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>19.03368883358813</v>
       </c>
       <c r="N8" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2422679045691609</v>
+        <v>0.242267904568763</v>
       </c>
       <c r="M9" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="N9" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="O9" t="n">
-        <v>9.4954987519599</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="P9" t="n">
-        <v>9.295922177059506</v>
+        <v>18.79142092901936</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.03368883358856</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>19.03368883358812</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="O10" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="P10" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0935474614164</v>
+        <v>236.0935474614161</v>
       </c>
       <c r="K11" t="n">
-        <v>405.0940552373696</v>
+        <v>405.094055237369</v>
       </c>
       <c r="L11" t="n">
-        <v>539.8295033158493</v>
+        <v>539.8295033158486</v>
       </c>
       <c r="M11" t="n">
-        <v>632.6536672001967</v>
+        <v>632.6536672001959</v>
       </c>
       <c r="N11" t="n">
-        <v>647.5510774584129</v>
+        <v>647.551077458412</v>
       </c>
       <c r="O11" t="n">
-        <v>597.9941592012731</v>
+        <v>597.9941592012723</v>
       </c>
       <c r="P11" t="n">
-        <v>475.5246839773233</v>
+        <v>475.5246839773226</v>
       </c>
       <c r="Q11" t="n">
-        <v>308.4398939589527</v>
+        <v>308.4398939589522</v>
       </c>
       <c r="R11" t="n">
-        <v>93.14520756883559</v>
+        <v>93.1452075688353</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>121.6077732461156</v>
+        <v>121.6077732461154</v>
       </c>
       <c r="K12" t="n">
-        <v>286.7913212776676</v>
+        <v>286.7913212776672</v>
       </c>
       <c r="L12" t="n">
-        <v>432.4167693163742</v>
+        <v>432.4167693163736</v>
       </c>
       <c r="M12" t="n">
-        <v>524.1623661040448</v>
+        <v>524.1623661040444</v>
       </c>
       <c r="N12" t="n">
-        <v>74.38389192827157</v>
+        <v>552.5895710246033</v>
       </c>
       <c r="O12" t="n">
-        <v>483.0672627775368</v>
+        <v>22.4518016969734</v>
       </c>
       <c r="P12" t="n">
-        <v>368.1757166004655</v>
+        <v>368.175716600465</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.6922855705225</v>
+        <v>195.6922855705222</v>
       </c>
       <c r="R12" t="n">
-        <v>17.59021801576526</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.50747962171477</v>
+        <v>62.50747962171462</v>
       </c>
       <c r="K13" t="n">
-        <v>233.8673104701943</v>
+        <v>233.8673104701941</v>
       </c>
       <c r="L13" t="n">
-        <v>355.3569473847331</v>
+        <v>355.3569473847327</v>
       </c>
       <c r="M13" t="n">
-        <v>385.1681400284493</v>
+        <v>385.168140028449</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4992140889212</v>
+        <v>381.4992140889209</v>
       </c>
       <c r="O13" t="n">
-        <v>336.1981953709576</v>
+        <v>336.1981953709573</v>
       </c>
       <c r="P13" t="n">
-        <v>263.917371295176</v>
+        <v>263.9173712951758</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.44484923259104</v>
+        <v>98.44484923259087</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>182.012173774508</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>445.1137688394033</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35899,7 +35899,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134843</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
         <v>367.2547334404112</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>436.4108112109305</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
@@ -35975,16 +35975,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L20" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R20" t="n">
         <v>127.3573607845842</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O21" t="n">
-        <v>184.3120775415265</v>
+        <v>428.8975893793788</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M22" t="n">
         <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O22" t="n">
         <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q22" t="n">
         <v>118.9021551044799</v>
@@ -36370,7 +36370,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
         <v>553.844392613483</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>198.6489881964877</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>215.7430287755981</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
         <v>35.68303457970742</v>
@@ -36601,7 +36601,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
         <v>744.73230092637</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
@@ -36689,13 +36689,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916662</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.33987566277405</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L29" t="n">
         <v>625.7775560664393</v>
@@ -36850,7 +36850,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>528.8645690751622</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916662</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>553.844392613487</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845857</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>128.6503506911019</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O33" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.37217397760978</v>
+        <v>83.37217397760966</v>
       </c>
       <c r="K34" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311549</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913272</v>
       </c>
       <c r="M34" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552919</v>
       </c>
       <c r="N34" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878652</v>
       </c>
       <c r="O34" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275851</v>
       </c>
       <c r="P34" t="n">
-        <v>297.0573375600852</v>
+        <v>297.057337560085</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.4944069714291</v>
+        <v>122.494406971429</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q36" t="n">
-        <v>153.051130366252</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.37217397760983</v>
+        <v>83.37217397760971</v>
       </c>
       <c r="K37" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311549</v>
       </c>
       <c r="L37" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913272</v>
       </c>
       <c r="M37" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N37" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O37" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P37" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600851</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714292</v>
+        <v>122.494406971429</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
@@ -37631,19 +37631,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>10.13547569702973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263735</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P41" t="n">
         <v>553.844392613483</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>49.32163785977577</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>157.9822462190674</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
@@ -37880,7 +37880,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.37217397760972</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K43" t="n">
-        <v>265.8434912311549</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913272</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M43" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N43" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O43" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P43" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946983</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M45" t="n">
-        <v>55.73333352726556</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
@@ -38111,13 +38111,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.37217397760978</v>
+        <v>83.3721739776099</v>
       </c>
       <c r="K46" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M46" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N46" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O46" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P46" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
